--- a/pre_processing/target_encoder_is_auto_renew.xlsx
+++ b/pre_processing/target_encoder_is_auto_renew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,22 +450,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.262</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.915</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.121</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
         <v>1.438</v>
       </c>
     </row>

--- a/pre_processing/target_encoder_is_auto_renew.xlsx
+++ b/pre_processing/target_encoder_is_auto_renew.xlsx
@@ -450,7 +450,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.37</v>
+        <v>-0.375</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1.438</v>
+        <v>1.472</v>
       </c>
     </row>
   </sheetData>

--- a/pre_processing/target_encoder_is_auto_renew.xlsx
+++ b/pre_processing/target_encoder_is_auto_renew.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,15 +450,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.375</v>
+        <v>-1.074</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.049</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>0</v>
       </c>
-      <c r="B3" t="n">
-        <v>1.472</v>
+      <c r="B4" t="n">
+        <v>1.195</v>
       </c>
     </row>
   </sheetData>
